--- a/Assembly/shield_lcd4.3/bom-shield_lcd4.3.xlsx
+++ b/Assembly/shield_lcd4.3/bom-shield_lcd4.3.xlsx
@@ -202,10 +202,10 @@
     <t>EEPROM</t>
   </si>
   <si>
-    <t>Project: Shield EVA01 LCD 4,3''</t>
-  </si>
-  <si>
     <t>Revision: A</t>
+  </si>
+  <si>
+    <t>Project: EVA01 Shield Display LCD 4,3''</t>
   </si>
 </sst>
 </file>
@@ -307,11 +307,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,186 +620,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="1" t="s">
@@ -822,25 +822,25 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="180">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="60">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -880,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="105">
+    <row r="18" spans="1:15" ht="60">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -901,25 +901,25 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="90">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" ht="45">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -1040,25 +1040,25 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" ht="165">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" ht="45">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45">
+    <row r="28" spans="1:15" ht="30">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="45">
+    <row r="29" spans="1:15" ht="30">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1119,25 +1119,25 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" ht="60">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" ht="30">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -1158,25 +1158,25 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="105">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="60">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -1218,21 +1218,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A19:O19"/>
+    <mergeCell ref="A26:O26"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A19:O19"/>
-    <mergeCell ref="A26:O26"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
